--- a/Week 1/Week-1 Questions.xlsx
+++ b/Week 1/Week-1 Questions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>DSA-301-Module 3.3.2.1</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Masai | Smaller Neighbour Element (masaischool.com)</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>Masai | Again a classical problem (masaischool.com)</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
   </si>
   <si>
     <t>Masai | Difference of K (masaischool.com)</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
   <si>
     <t>Masai | Next Greater Odd (masaischool.com)</t>
@@ -105,12 +111,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +126,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.5"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -131,6 +144,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -138,7 +159,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,6 +167,51 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -153,15 +219,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,37 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -222,22 +249,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -253,28 +273,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,25 +303,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,31 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,121 +483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,6 +500,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -488,6 +525,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,17 +577,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,187 +600,179 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1058,8 +1096,8 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.2857142857143" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1077,21 +1115,21 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1102,135 +1140,139 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1" t="s">
-        <v>20</v>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1" t="s">
-        <v>22</v>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Week 1/Week-1 Questions.xlsx
+++ b/Week 1/Week-1 Questions.xlsx
@@ -111,9 +111,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -150,8 +150,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -159,52 +174,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +195,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -233,30 +265,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -264,14 +280,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -281,14 +289,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,187 +309,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,26 +505,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,6 +577,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -576,177 +600,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1096,8 +1096,8 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.2857142857143" defaultRowHeight="15" outlineLevelCol="2"/>
